--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1846.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1846.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.7313473497836311</v>
+        <v>1.3628830909729</v>
       </c>
       <c r="B1">
-        <v>0.7956339414995061</v>
+        <v>2.935124635696411</v>
       </c>
       <c r="C1">
-        <v>0.9311306365465961</v>
+        <v>4.00922155380249</v>
       </c>
       <c r="D1">
-        <v>1.575649464263621</v>
+        <v>3.173510074615479</v>
       </c>
       <c r="E1">
-        <v>3.421383760181668</v>
+        <v>0.7575874328613281</v>
       </c>
     </row>
   </sheetData>
